--- a/Uploads/Reportes/Reporte_Abril_TICONA_MAMANI_ALEX_ARMANDO.xlsx
+++ b/Uploads/Reportes/Reporte_Abril_TICONA_MAMANI_ALEX_ARMANDO.xlsx
@@ -29,7 +29,7 @@
     <t>Hora de Reporte:</t>
   </si>
   <si>
-    <t>11:18:24 - 27-05-2024</t>
+    <t>09:42:00 - 31-05-2024</t>
   </si>
   <si>
     <t>Horario:</t>
